--- a/sponsored_2018.xlsx
+++ b/sponsored_2018.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\OneDrive - Gonzaga University\Fall 2018\Senior Design\zags-abroad-backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gonzagau-my.sharepoint.com/personal/kburgett_zagmail_gonzaga_edu/Documents/Fall 2018/Senior Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{30E8E1F5-63B0-4C76-A694-8E27AC585CF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C034B859-5A0D-4F09-BED2-377C2A9149E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11003" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11764" uniqueCount="3631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11766" uniqueCount="3633">
   <si>
     <t>ART 5450</t>
   </si>
@@ -10931,6 +10931,12 @@
   </si>
   <si>
     <t xml:space="preserve">Engineering </t>
+  </si>
+  <si>
+    <t>ACCT</t>
+  </si>
+  <si>
+    <t>Accounting</t>
   </si>
 </sst>
 </file>
@@ -58231,10 +58237,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7132D9-E5D7-4BCA-BDC1-3B58B16A0BE0}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -58271,129 +58277,137 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>3601</v>
+        <v>3631</v>
       </c>
       <c r="B3" t="s">
-        <v>3602</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
       <c r="B4" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>3605</v>
+        <v>3603</v>
       </c>
       <c r="B5" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
       <c r="B6" t="s">
-        <v>2021</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
       <c r="B7" t="s">
-        <v>3610</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="B8" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
       <c r="B9" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="B10" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="B11" t="s">
-        <v>1988</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="B12" t="s">
-        <v>3619</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
       <c r="B13" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
       <c r="B14" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
       <c r="B15" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="B16" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="B17" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>3628</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1532</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>3630</v>
       </c>
     </row>

--- a/sponsored_2018.xlsx
+++ b/sponsored_2018.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire Norman\Desktop\zagsabroad\zags-abroad-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3257CFCE-5E34-48B8-81EA-0643842ACCC9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADF4709-16F2-4EA5-AF6D-3DE9F00451C3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11003" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL EQUIVALENCIES use Filter " sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ALL EQUIVALENCIES use Filter '!$K$1:$K$1447</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -11326,8 +11329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C322" sqref="C322"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -56794,6 +56797,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="K1:K1447" xr:uid="{6DD63BD1-B5FC-4FFB-AEE6-8F2876966816}"/>
   <sortState ref="A1:K1645">
     <sortCondition ref="A1:A1645"/>
     <sortCondition ref="B1:B1645"/>

--- a/sponsored_2018.xlsx
+++ b/sponsored_2018.xlsx
@@ -5,18 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gonzagau-my.sharepoint.com/personal/kburgett_zagmail_gonzaga_edu/Documents/Fall 2018/Senior Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\OneDrive - Gonzaga University\Fall 2018\Senior Design\zags-abroad-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C034B859-5A0D-4F09-BED2-377C2A9149E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACF4BAB2-49F9-410C-9869-D3ED8268EDEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11003" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL EQUIVALENCIES use Filter " sheetId="1" r:id="rId1"/>
     <sheet name="Programs" sheetId="2" r:id="rId2"/>
-    <sheet name="Departments" sheetId="3" r:id="rId3"/>
+    <sheet name="Departments" sheetId="4" r:id="rId3"/>
+    <sheet name="Subject Codes" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ALL EQUIVALENCIES use Filter '!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11766" uniqueCount="3633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11983" uniqueCount="3801">
   <si>
     <t>ART 5450</t>
   </si>
@@ -10834,109 +10838,613 @@
     <t>CODE</t>
   </si>
   <si>
-    <t>DEPARTMENT</t>
-  </si>
-  <si>
     <t>Business</t>
   </si>
   <si>
+    <t>MDLA</t>
+  </si>
+  <si>
+    <t>VART</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>BIOL</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>INMD</t>
+  </si>
+  <si>
+    <t>CATH</t>
+  </si>
+  <si>
+    <t>Catholic Studies</t>
+  </si>
+  <si>
+    <t>CHEM</t>
+  </si>
+  <si>
+    <t>CENG</t>
+  </si>
+  <si>
+    <t>Civil Engineering</t>
+  </si>
+  <si>
+    <t>CLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Engineering </t>
+  </si>
+  <si>
+    <t>CPSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Science </t>
+  </si>
+  <si>
+    <t>EDCE</t>
+  </si>
+  <si>
+    <t>EENG</t>
+  </si>
+  <si>
+    <t>Electrical Engineering</t>
+  </si>
+  <si>
+    <t>ACCT</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>ARAB</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>BRCO</t>
+  </si>
+  <si>
+    <t>Broadcasting</t>
+  </si>
+  <si>
+    <t>BENT</t>
+  </si>
+  <si>
+    <t>Business Entrepreneurship</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>CHIN</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Classics</t>
+  </si>
+  <si>
+    <t>COMM</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>COML</t>
+  </si>
+  <si>
+    <t>Communication Leadership</t>
+  </si>
+  <si>
+    <t>Counselor Education</t>
+  </si>
+  <si>
+    <t>CRIM</t>
+  </si>
+  <si>
+    <t>Criminology</t>
+  </si>
+  <si>
+    <t>EDLD</t>
+  </si>
+  <si>
+    <t>Doctoral Education</t>
+  </si>
+  <si>
+    <t>DPLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doctoral Program in Leadership Studies </t>
+  </si>
+  <si>
+    <t>ECON</t>
+  </si>
+  <si>
+    <t>EDSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eds School Psychology </t>
+  </si>
+  <si>
+    <t>ENSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering Science </t>
+  </si>
+  <si>
+    <t>ENGL</t>
+  </si>
+  <si>
+    <t>ELCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English Language Center </t>
+  </si>
+  <si>
+    <t>ENVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental Studies </t>
+  </si>
+  <si>
+    <t>BFIN</t>
+  </si>
+  <si>
+    <t>FREN</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>GERM</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>GREK</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>HIST</t>
+  </si>
+  <si>
+    <t>HONS</t>
+  </si>
+  <si>
+    <t>Honors</t>
+  </si>
+  <si>
+    <t>HPHY</t>
+  </si>
+  <si>
+    <t>ITEC</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>INST</t>
+  </si>
+  <si>
+    <t>International Studies</t>
+  </si>
+  <si>
+    <t>ITAL</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>JPNE</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>JOUR</t>
+  </si>
+  <si>
+    <t>Journalism</t>
+  </si>
+  <si>
+    <t>LATN</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <t>LAW</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>EDLA</t>
+  </si>
+  <si>
+    <t>Leadership and Administration</t>
+  </si>
+  <si>
+    <t>LDRS</t>
+  </si>
+  <si>
+    <t>Leadership Studies</t>
+  </si>
+  <si>
+    <t>MGMT</t>
+  </si>
+  <si>
+    <t>Mangement</t>
+  </si>
+  <si>
+    <t>BMIS</t>
+  </si>
+  <si>
+    <t>Management Information Systems</t>
+  </si>
+  <si>
+    <t>MKTG</t>
+  </si>
+  <si>
+    <t>MTAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master of Taxation </t>
+  </si>
+  <si>
+    <t>MACC</t>
+  </si>
+  <si>
+    <t>Masters Accounting</t>
+  </si>
+  <si>
+    <t>MBUS</t>
+  </si>
+  <si>
+    <t>Masters Business Administration</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>MENG</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>MILS</t>
+  </si>
+  <si>
+    <t>Military Science</t>
+  </si>
+  <si>
+    <t>Modern Language</t>
+  </si>
+  <si>
+    <t>MUSC</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Native American Studies</t>
+  </si>
+  <si>
+    <t>NTAS</t>
+  </si>
+  <si>
+    <t>DNAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurse Anesthesia Practice </t>
+  </si>
+  <si>
+    <t>NURS</t>
+  </si>
+  <si>
+    <t>Nursing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPER </t>
+  </si>
+  <si>
+    <t>ORGL</t>
+  </si>
+  <si>
+    <t>Organizational Leadership</t>
+  </si>
+  <si>
+    <t>PHIL</t>
+  </si>
+  <si>
+    <t>EDPE</t>
+  </si>
+  <si>
+    <t>Physical Education</t>
+  </si>
+  <si>
+    <t>PHYS</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>POLS</t>
+  </si>
+  <si>
+    <t>Political Science</t>
+  </si>
+  <si>
+    <t>EDPC</t>
+  </si>
+  <si>
+    <t>Principal Certification</t>
+  </si>
+  <si>
+    <t>PSYC</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>PRLS</t>
+  </si>
+  <si>
+    <t>Public Relations</t>
+  </si>
+  <si>
+    <t>RELI</t>
+  </si>
+  <si>
+    <t>Religious Studies</t>
+  </si>
+  <si>
+    <t>SOCI</t>
+  </si>
+  <si>
+    <t>SOSJ</t>
+  </si>
+  <si>
+    <t>Solidarity &amp; Social Justice</t>
+  </si>
+  <si>
+    <t>SPAN</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>EDSE</t>
+  </si>
+  <si>
+    <t>Special Education</t>
+  </si>
+  <si>
+    <t>EDTE</t>
+  </si>
+  <si>
+    <t>Teacher Education</t>
+  </si>
+  <si>
+    <t>MTSL</t>
+  </si>
+  <si>
+    <t>Teaching English as Second Language</t>
+  </si>
+  <si>
+    <t>THEA</t>
+  </si>
+  <si>
+    <t>Theatre Arts</t>
+  </si>
+  <si>
+    <t>TADP</t>
+  </si>
+  <si>
+    <t>Transmission &amp; Distribution</t>
+  </si>
+  <si>
+    <t>UNIV</t>
+  </si>
+  <si>
+    <t>University Study Skills</t>
+  </si>
+  <si>
+    <t>WGST</t>
+  </si>
+  <si>
+    <t>Womens and Gender Studies</t>
+  </si>
+  <si>
+    <t>SUBJECT NAME</t>
+  </si>
+  <si>
+    <t>BUSINESS</t>
+  </si>
+  <si>
     <t>BUSS</t>
   </si>
   <si>
-    <t>MDLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modern Languages &amp; Literature </t>
-  </si>
-  <si>
-    <t>VART</t>
-  </si>
-  <si>
-    <t>Art</t>
-  </si>
-  <si>
-    <t>BIOL</t>
-  </si>
-  <si>
-    <t>Biology</t>
-  </si>
-  <si>
-    <t>INMD</t>
-  </si>
-  <si>
-    <t>Business Enterprenurship</t>
-  </si>
-  <si>
-    <t>CATH</t>
-  </si>
-  <si>
-    <t>Catholic Studies</t>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>MODERN LANGUAGES AND LITERATURE</t>
+  </si>
+  <si>
+    <t>MLDA</t>
+  </si>
+  <si>
+    <t>BIOLOGY</t>
+  </si>
+  <si>
+    <t>INTEGRATED MEDIA</t>
+  </si>
+  <si>
+    <t>CATHOLIC STUDIES</t>
+  </si>
+  <si>
+    <t>CHEMISTRY AND BIOCHEMISTRY</t>
   </si>
   <si>
     <t>CHBC</t>
   </si>
   <si>
-    <t xml:space="preserve">Chemistry and Biochemistry </t>
-  </si>
-  <si>
-    <t>CHEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemistry </t>
-  </si>
-  <si>
-    <t>CENG</t>
-  </si>
-  <si>
-    <t>Civil Engineering</t>
+    <t>CIVIL ENGINEERING</t>
+  </si>
+  <si>
+    <t>CLASSICAL CIVILIZATIONS</t>
+  </si>
+  <si>
+    <t>COMMUNICATION STUDIES</t>
   </si>
   <si>
     <t>CMST</t>
   </si>
   <si>
-    <t>CLAS</t>
-  </si>
-  <si>
-    <t>Classiical Civilizations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPEN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer Engineering </t>
-  </si>
-  <si>
-    <t>CPSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer Science </t>
-  </si>
-  <si>
-    <t>EDCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counselor Education </t>
+    <t>COMMUNICATION &amp; LDRSHP STUDIES</t>
+  </si>
+  <si>
+    <t>COMPUTER ENGINEERING</t>
+  </si>
+  <si>
+    <t>CPEN</t>
+  </si>
+  <si>
+    <t>COMPUTER SCIENCE</t>
+  </si>
+  <si>
+    <t>COUNSELOR EDUCATION</t>
+  </si>
+  <si>
+    <t>SOCIOLOGY AND CRIMINOLOGY</t>
   </si>
   <si>
     <t>SOCR</t>
   </si>
   <si>
-    <t xml:space="preserve">Sociology and Criminology </t>
-  </si>
-  <si>
-    <t>EENG</t>
-  </si>
-  <si>
-    <t>Electrical Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engineering </t>
-  </si>
-  <si>
-    <t>ACCT</t>
-  </si>
-  <si>
-    <t>Accounting</t>
+    <t>LEADERSHIP STUDIES</t>
+  </si>
+  <si>
+    <t>EDUCATION PSYCHOLOGY</t>
+  </si>
+  <si>
+    <t>ELECTRICAL ENGINEERING</t>
+  </si>
+  <si>
+    <t>ENGINEERING</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>ENGLISH LANGUAGE CENTER</t>
+  </si>
+  <si>
+    <t>ENVIRONMENTAL STUDIES</t>
+  </si>
+  <si>
+    <t>HISTORY</t>
+  </si>
+  <si>
+    <t>HONORS</t>
+  </si>
+  <si>
+    <t>NUMAN PHYSIOLOGY</t>
+  </si>
+  <si>
+    <t>HYPY</t>
+  </si>
+  <si>
+    <t>INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL STUDIES</t>
+  </si>
+  <si>
+    <t>LEADERSHIP AND ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>COMPREHENSIVE LEADERSHIP</t>
+  </si>
+  <si>
+    <t>CLPD</t>
+  </si>
+  <si>
+    <t>MATHEMATICS</t>
+  </si>
+  <si>
+    <t>MECHANICAL ENGINEERING</t>
+  </si>
+  <si>
+    <t>MILITARY SCIENCE</t>
+  </si>
+  <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>NATIVE AMERICAN STUDIES</t>
+  </si>
+  <si>
+    <t>NURSE ANESTHESIA PRACTICE</t>
+  </si>
+  <si>
+    <t>NURSING</t>
+  </si>
+  <si>
+    <t>ORGANIZATIONAL LDRSHP</t>
+  </si>
+  <si>
+    <t>PHILOSOPHY</t>
+  </si>
+  <si>
+    <t>PHYSICAL EDUCATION</t>
+  </si>
+  <si>
+    <t>PHYSICS</t>
+  </si>
+  <si>
+    <t>POLITICAL SCIENCE</t>
+  </si>
+  <si>
+    <t>PSYCHOLOGY</t>
+  </si>
+  <si>
+    <t>RELIGIOUS STUDIES</t>
+  </si>
+  <si>
+    <t>SPECIAL EDUCATION</t>
+  </si>
+  <si>
+    <t>TEACHER EDUCATION</t>
+  </si>
+  <si>
+    <t>THEATRE &amp; DANCE</t>
+  </si>
+  <si>
+    <t>WOMENS AND GENDER STUDIES</t>
+  </si>
+  <si>
+    <t>TRANSMISSION &amp; DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>DEPARMENT NAMES</t>
   </si>
 </sst>
 </file>
@@ -11008,7 +11516,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11030,6 +11538,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11074,7 +11588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -11170,6 +11684,8 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11453,18 +11969,18 @@
   <dimension ref="A1:K1484"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.5625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.6875" customWidth="1"/>
-    <col min="4" max="4" width="26.5625" customWidth="1"/>
+    <col min="4" max="4" width="26.625" customWidth="1"/>
     <col min="5" max="5" width="49.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.6875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.4375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.3125" bestFit="1" customWidth="1"/>
@@ -58028,6 +58544,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{4B2DC50D-E451-4F73-85D1-F0A15E0AB41E}"/>
   <sortState ref="A2:K1682">
     <sortCondition ref="A2:A1682"/>
     <sortCondition ref="B2:B1682"/>
@@ -58047,7 +58564,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.5625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -58236,182 +58753,1222 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7132D9-E5D7-4BCA-BDC1-3B58B16A0BE0}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10D09B7-C5CD-4EBF-AAAC-5BD49B451FE1}">
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="26.8125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.9375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="58" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B1" s="58" t="s">
         <v>3597</v>
       </c>
-      <c r="B1" t="s">
-        <v>3598</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B3" t="s">
         <v>3600</v>
       </c>
-      <c r="B2" t="s">
-        <v>3599</v>
-      </c>
-      <c r="C2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B9" t="s">
         <v>3608</v>
       </c>
-      <c r="E2" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>3631</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B12" t="s">
         <v>3632</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>3601</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>3603</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>3605</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>3607</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>3609</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3610</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>3611</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B14" t="s">
         <v>3613</v>
       </c>
-      <c r="B10" t="s">
-        <v>3614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B15" t="s">
         <v>3615</v>
       </c>
-      <c r="B11" t="s">
-        <v>3616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>3617</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>3618</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>3620</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3621</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>3622</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3623</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>3624</v>
+        <v>3763</v>
       </c>
       <c r="B16" t="s">
-        <v>3625</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>3626</v>
+        <v>3765</v>
       </c>
       <c r="B17" t="s">
-        <v>3627</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>3628</v>
+        <v>3766</v>
       </c>
       <c r="B18" t="s">
-        <v>3629</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B20" t="s">
         <v>1532</v>
       </c>
-      <c r="B19" t="s">
-        <v>3630</v>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3737</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7132D9-E5D7-4BCA-BDC1-3B58B16A0BE0}">
+  <dimension ref="A1:B229"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="33.8125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3624</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3620</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>3610</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>3630</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="53" customFormat="1">
+      <c r="A15" s="57" t="s">
+        <v>3632</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>3613</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="53" customFormat="1">
+      <c r="A20" s="57" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="53" customFormat="1">
+      <c r="A21" s="57" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>3646</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="53" customFormat="1">
+      <c r="A27" s="57" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>3654</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>3662</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>3664</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A43" s="57" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B43" s="57" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="53" customFormat="1">
+      <c r="A44" s="57" t="s">
+        <v>3676</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="53" customFormat="1">
+      <c r="A45" s="57" t="s">
+        <v>3678</v>
+      </c>
+      <c r="B45" s="57" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="53" customFormat="1">
+      <c r="A46" s="57" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B46" s="57" t="s">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="53" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="53" customFormat="1">
+      <c r="A48" s="53" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="53" customFormat="1">
+      <c r="A49" s="57" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="53" customFormat="1">
+      <c r="A50" s="57" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="53" customFormat="1">
+      <c r="A51" s="57" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="53" customFormat="1">
+      <c r="A52" s="53" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="53" customFormat="1">
+      <c r="A53" s="53" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="53" customFormat="1">
+      <c r="A54" s="53" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="53" customFormat="1">
+      <c r="A55" s="53" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B55" s="53" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="53" customFormat="1">
+      <c r="A56" s="53" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="53" customFormat="1">
+      <c r="A57" s="53" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="53" customFormat="1">
+      <c r="A58" s="57" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B58" s="57" t="s">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="53" customFormat="1">
+      <c r="A59" s="53" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B59" s="53" t="s">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="53" customFormat="1">
+      <c r="A60" s="53" t="s">
+        <v>3706</v>
+      </c>
+      <c r="B60" s="53" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="53" customFormat="1">
+      <c r="A61" s="53" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="53" customFormat="1">
+      <c r="A62" s="53" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B62" s="53" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="53" customFormat="1">
+      <c r="A63" s="53" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="53" customFormat="1">
+      <c r="A64" s="53" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B64" s="53" t="s">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="53" customFormat="1">
+      <c r="A65" s="53" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="53" customFormat="1">
+      <c r="A66" s="57" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B66" s="57" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="53" customFormat="1">
+      <c r="A67" s="53" t="s">
+        <v>3718</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="53" customFormat="1">
+      <c r="A68" s="53" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="53" customFormat="1">
+      <c r="A69" s="53" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B69" s="53" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="53" customFormat="1">
+      <c r="A70" s="53" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B70" s="53" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="53" customFormat="1">
+      <c r="A71" s="53" t="s">
+        <v>3725</v>
+      </c>
+      <c r="B71" s="53" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" s="53" customFormat="1">
+      <c r="A72" s="53" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B72" s="53" t="s">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="53" customFormat="1">
+      <c r="A73" s="53" t="s">
+        <v>3729</v>
+      </c>
+      <c r="B73" s="53" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="53" customFormat="1">
+      <c r="A74" s="57" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B74" s="57" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" s="53" customFormat="1">
+      <c r="A75" s="57" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B75" s="57" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="53" customFormat="1">
+      <c r="A76" s="53" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B76" s="53" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="53" customFormat="1">
+      <c r="A77" s="53" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B77" s="53" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="53" customFormat="1">
+      <c r="A78" s="57" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B78" s="57" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="53" customFormat="1">
+      <c r="A79" s="53" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="53" customFormat="1"/>
+    <row r="81" s="53" customFormat="1"/>
+    <row r="82" s="53" customFormat="1"/>
+    <row r="83" s="53" customFormat="1"/>
+    <row r="84" s="53" customFormat="1"/>
+    <row r="85" s="53" customFormat="1"/>
+    <row r="86" s="53" customFormat="1"/>
+    <row r="87" s="53" customFormat="1"/>
+    <row r="88" s="53" customFormat="1"/>
+    <row r="89" s="53" customFormat="1"/>
+    <row r="90" s="53" customFormat="1"/>
+    <row r="91" s="53" customFormat="1"/>
+    <row r="92" s="53" customFormat="1"/>
+    <row r="93" s="53" customFormat="1"/>
+    <row r="94" s="53" customFormat="1"/>
+    <row r="95" s="53" customFormat="1"/>
+    <row r="96" s="53" customFormat="1"/>
+    <row r="97" s="53" customFormat="1"/>
+    <row r="98" s="53" customFormat="1"/>
+    <row r="99" s="53" customFormat="1"/>
+    <row r="100" s="53" customFormat="1"/>
+    <row r="101" s="53" customFormat="1"/>
+    <row r="102" s="53" customFormat="1"/>
+    <row r="103" s="53" customFormat="1"/>
+    <row r="104" s="53" customFormat="1"/>
+    <row r="105" s="53" customFormat="1"/>
+    <row r="106" s="53" customFormat="1"/>
+    <row r="107" s="53" customFormat="1"/>
+    <row r="108" s="53" customFormat="1"/>
+    <row r="109" s="53" customFormat="1"/>
+    <row r="110" s="53" customFormat="1"/>
+    <row r="111" s="53" customFormat="1"/>
+    <row r="112" s="53" customFormat="1"/>
+    <row r="113" s="53" customFormat="1"/>
+    <row r="114" s="53" customFormat="1"/>
+    <row r="115" s="53" customFormat="1"/>
+    <row r="116" s="53" customFormat="1"/>
+    <row r="117" s="53" customFormat="1"/>
+    <row r="118" s="53" customFormat="1"/>
+    <row r="119" s="53" customFormat="1"/>
+    <row r="120" s="53" customFormat="1"/>
+    <row r="121" s="53" customFormat="1"/>
+    <row r="122" s="53" customFormat="1"/>
+    <row r="123" s="53" customFormat="1"/>
+    <row r="124" s="53" customFormat="1"/>
+    <row r="125" s="53" customFormat="1"/>
+    <row r="126" s="53" customFormat="1"/>
+    <row r="127" s="53" customFormat="1"/>
+    <row r="128" s="53" customFormat="1"/>
+    <row r="129" s="53" customFormat="1"/>
+    <row r="130" s="53" customFormat="1"/>
+    <row r="131" s="53" customFormat="1"/>
+    <row r="132" s="53" customFormat="1"/>
+    <row r="133" s="53" customFormat="1"/>
+    <row r="134" s="53" customFormat="1"/>
+    <row r="135" s="53" customFormat="1"/>
+    <row r="136" s="53" customFormat="1"/>
+    <row r="137" s="53" customFormat="1"/>
+    <row r="138" s="53" customFormat="1"/>
+    <row r="139" s="53" customFormat="1"/>
+    <row r="140" s="53" customFormat="1"/>
+    <row r="141" s="53" customFormat="1"/>
+    <row r="142" s="53" customFormat="1"/>
+    <row r="143" s="53" customFormat="1"/>
+    <row r="144" s="53" customFormat="1"/>
+    <row r="145" s="53" customFormat="1"/>
+    <row r="146" s="53" customFormat="1"/>
+    <row r="147" s="53" customFormat="1"/>
+    <row r="148" s="53" customFormat="1"/>
+    <row r="149" s="53" customFormat="1"/>
+    <row r="150" s="53" customFormat="1"/>
+    <row r="151" s="53" customFormat="1"/>
+    <row r="152" s="53" customFormat="1"/>
+    <row r="153" s="53" customFormat="1"/>
+    <row r="154" s="53" customFormat="1"/>
+    <row r="155" s="53" customFormat="1"/>
+    <row r="156" s="53" customFormat="1"/>
+    <row r="157" s="53" customFormat="1"/>
+    <row r="158" s="53" customFormat="1"/>
+    <row r="159" s="53" customFormat="1"/>
+    <row r="160" s="53" customFormat="1"/>
+    <row r="161" s="53" customFormat="1"/>
+    <row r="162" s="53" customFormat="1"/>
+    <row r="163" s="53" customFormat="1"/>
+    <row r="164" s="53" customFormat="1"/>
+    <row r="165" s="53" customFormat="1"/>
+    <row r="166" s="53" customFormat="1"/>
+    <row r="167" s="53" customFormat="1"/>
+    <row r="168" s="53" customFormat="1"/>
+    <row r="169" s="53" customFormat="1"/>
+    <row r="170" s="53" customFormat="1"/>
+    <row r="171" s="53" customFormat="1"/>
+    <row r="172" s="53" customFormat="1"/>
+    <row r="173" s="53" customFormat="1"/>
+    <row r="174" s="53" customFormat="1"/>
+    <row r="175" s="53" customFormat="1"/>
+    <row r="176" s="53" customFormat="1"/>
+    <row r="177" s="53" customFormat="1"/>
+    <row r="178" s="53" customFormat="1"/>
+    <row r="179" s="53" customFormat="1"/>
+    <row r="180" s="53" customFormat="1"/>
+    <row r="181" s="53" customFormat="1"/>
+    <row r="182" s="53" customFormat="1"/>
+    <row r="183" s="53" customFormat="1"/>
+    <row r="184" s="53" customFormat="1"/>
+    <row r="185" s="53" customFormat="1"/>
+    <row r="186" s="53" customFormat="1"/>
+    <row r="187" s="53" customFormat="1"/>
+    <row r="188" s="53" customFormat="1"/>
+    <row r="189" s="53" customFormat="1"/>
+    <row r="190" s="53" customFormat="1"/>
+    <row r="191" s="53" customFormat="1"/>
+    <row r="192" s="53" customFormat="1"/>
+    <row r="193" s="53" customFormat="1"/>
+    <row r="194" s="53" customFormat="1"/>
+    <row r="195" s="53" customFormat="1"/>
+    <row r="196" s="53" customFormat="1"/>
+    <row r="197" s="53" customFormat="1"/>
+    <row r="198" s="53" customFormat="1"/>
+    <row r="199" s="53" customFormat="1"/>
+    <row r="200" s="53" customFormat="1"/>
+    <row r="201" s="53" customFormat="1"/>
+    <row r="202" s="53" customFormat="1"/>
+    <row r="203" s="53" customFormat="1"/>
+    <row r="204" s="53" customFormat="1"/>
+    <row r="205" s="53" customFormat="1"/>
+    <row r="206" s="53" customFormat="1"/>
+    <row r="207" s="53" customFormat="1"/>
+    <row r="208" s="53" customFormat="1"/>
+    <row r="209" s="53" customFormat="1"/>
+    <row r="210" s="53" customFormat="1"/>
+    <row r="211" s="53" customFormat="1"/>
+    <row r="212" s="53" customFormat="1"/>
+    <row r="213" s="53" customFormat="1"/>
+    <row r="214" s="53" customFormat="1"/>
+    <row r="215" s="53" customFormat="1"/>
+    <row r="216" s="53" customFormat="1"/>
+    <row r="217" s="53" customFormat="1"/>
+    <row r="218" s="53" customFormat="1"/>
+    <row r="219" s="53" customFormat="1"/>
+    <row r="220" s="53" customFormat="1"/>
+    <row r="221" s="53" customFormat="1"/>
+    <row r="222" s="53" customFormat="1"/>
+    <row r="223" s="53" customFormat="1"/>
+    <row r="224" s="53" customFormat="1"/>
+    <row r="225" s="53" customFormat="1"/>
+    <row r="226" s="53" customFormat="1"/>
+    <row r="227" s="53" customFormat="1"/>
+    <row r="228" s="53" customFormat="1"/>
+    <row r="229" s="53" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/sponsored_2018.xlsx
+++ b/sponsored_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire Norman\Desktop\zagsabroad\zags-abroad-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57BF9914-2081-4618-9520-2AFF13D62E13}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1345275-5735-4878-A29A-BC591E42FB24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="7425" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14663" windowHeight="8535" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL EQUIVALENCIES use Filter " sheetId="1" r:id="rId1"/>
@@ -21,10 +21,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ALL EQUIVALENCIES use Filter '!$K$1:$K$1447</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -57422,7 +57428,7 @@
     </row>
   </sheetData>
   <autoFilter ref="K1:K1447" xr:uid="{6DD63BD1-B5FC-4FFB-AEE6-8F2876966816}"/>
-  <sortState ref="A1:K1645">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:K1645">
     <sortCondition ref="A1:A1645"/>
     <sortCondition ref="B1:B1645"/>
   </sortState>
@@ -58284,7 +58290,7 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/sponsored_2018.xlsx
+++ b/sponsored_2018.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\OneDrive - Gonzaga University\Fall 2018\Senior Design\zags-abroad-backend\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire Norman\Desktop\zagsabroad\zags-abroad-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6A245E5F-9B24-4DF0-A9BA-B79B25FAA3F1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF112A9F-CDA2-47CF-A5C2-40831E118422}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5078" windowHeight="8535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5078" windowHeight="8535" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL EQUIVALENCIES use Filter " sheetId="1" r:id="rId1"/>
     <sheet name="Programs" sheetId="2" r:id="rId2"/>
     <sheet name="Subjects" sheetId="3" r:id="rId3"/>
     <sheet name="Departments" sheetId="4" r:id="rId4"/>
+    <sheet name="CORE" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ALL EQUIVALENCIES use Filter '!$L$1:$L$1447</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11762" uniqueCount="3801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11778" uniqueCount="3815">
   <si>
     <t>ART 5450</t>
   </si>
@@ -11453,12 +11454,54 @@
       <t xml:space="preserve"> ** CIVIL MAJORS ONLY</t>
     </r>
   </si>
+  <si>
+    <t>CHRISTIANITY AND CATHOLIC STUDIES</t>
+  </si>
+  <si>
+    <t>COMMUNICATION AND SPEECH</t>
+  </si>
+  <si>
+    <t>ETHICS</t>
+  </si>
+  <si>
+    <t>FINE ARTS</t>
+  </si>
+  <si>
+    <t>LITERATURE</t>
+  </si>
+  <si>
+    <t>PHILOSOPHY OF HUMAN NATURE</t>
+  </si>
+  <si>
+    <t>REASONING</t>
+  </si>
+  <si>
+    <t>SCIENTIFIC INQUIRY</t>
+  </si>
+  <si>
+    <t>SOCIAL AND BEHAVIORAL SCIENCES</t>
+  </si>
+  <si>
+    <t>WORLD OR COMPARATIVE RELIGION</t>
+  </si>
+  <si>
+    <t>WRITING</t>
+  </si>
+  <si>
+    <t>GLOBAL STUDIES DESIGNATION</t>
+  </si>
+  <si>
+    <t>SOCIAL JUSTICE DESIGNATION</t>
+  </si>
+  <si>
+    <t>WRITING ENRICHED DESIGNATION</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11545,6 +11588,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -11613,7 +11664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -11715,6 +11766,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11998,7 +12050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1447"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C955" sqref="C955"/>
     </sheetView>
   </sheetViews>
@@ -58919,7 +58971,7 @@
     </row>
   </sheetData>
   <autoFilter ref="L1:L1447" xr:uid="{6DD63BD1-B5FC-4FFB-AEE6-8F2876966816}"/>
-  <sortState ref="A1:L1645">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:L1645">
     <sortCondition ref="A1:A1645"/>
     <sortCondition ref="B1:B1645"/>
   </sortState>
@@ -59131,8 +59183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA4B077-2B21-4097-A131-F4C3C7A92D62}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -59143,10 +59195,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="63" t="s">
         <v>3590</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="63" t="s">
         <v>3736</v>
       </c>
     </row>
@@ -59776,6 +59828,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -60350,4 +60403,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0EDF9D-9B19-44C6-BF6F-C94909280414}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="35.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>